--- a/acronimos.xlsx
+++ b/acronimos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\messi\OneDrive\Escritorio\escuela\Servicio Social\Python\PCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD48BF-9204-42BC-A933-0CFE18128F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC8D144-E1E7-49EE-8F53-ABEFE23FD2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{06369A16-B542-499D-8453-38461DFC224E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>ResponderReenviar</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Educación obligatoria, duración (años)</t>
   </si>
   <si>
-    <t>Gasto en educación terciaria (% del gasto gubernamental en educación)</t>
-  </si>
-  <si>
     <t>Crecimiento del PIB (% anual)</t>
   </si>
   <si>
@@ -65,96 +62,42 @@
     <t>Gasto gubernamental en educación, total (% del PIB)</t>
   </si>
   <si>
-    <t>Gasto gubernamental en educación, total (% del gasto gubernamental)</t>
-  </si>
-  <si>
-    <t>Tasa de incidencia de la pobreza a $2.15 por día (PPA 2017) (% de la población)</t>
-  </si>
-  <si>
-    <t>Tasa de incidencia de la pobreza a $3.65 por día (PPA 2017) (% de la población)</t>
-  </si>
-  <si>
     <t>Tasa de incidencia de la pobreza a $6.85 por día (PPA 2017) (% de la población)',</t>
   </si>
   <si>
-    <t>Tasa de incidencia de la pobreza según las líneas de pobreza nacionales (% de la población)',</t>
-  </si>
-  <si>
     <t>Tasa de incidencia de la pobreza según la línea de pobreza social (% de la población)</t>
   </si>
   <si>
-    <t>Proporción de la población que gasta más del 25% del consumo o ingreso del hogar en gastos de salud directos (%)</t>
-  </si>
-  <si>
-    <t>Proporción del tiempo dedicado al trabajo doméstico y de cuidados no remunerado, mujeres (% de un día de 24 horas)</t>
-  </si>
-  <si>
-    <t>Proporción del tiempo dedicado al trabajo doméstico y de cuidados no remunerado, hombres (% de un día de 24 horas)</t>
-  </si>
-  <si>
     <t>Gasto en investigación y desarrollo (% del PIB)</t>
   </si>
   <si>
     <t>Matriculación escolar, terciaria, mujeres (% bruto)</t>
   </si>
   <si>
-    <t>Matriculación escolar, terciaria, hombres (% bruto)</t>
-  </si>
-  <si>
     <t>Intensidad de carbono PPA 2021</t>
   </si>
   <si>
-    <t>Intensidad de carbono PPA 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Intensidad de energía PPA 2017  </t>
   </si>
   <si>
-    <t>Adjusted savings: education expenditure (% of GNI)',</t>
-  </si>
-  <si>
-    <t>Ahorro ajustado: gasto en educación (% del PIB</t>
-  </si>
-  <si>
     <t>    Poverty headcount ratio at societal poverty line (% of population)</t>
   </si>
   <si>
-    <t>    Proportion of population spending more than 25% of household consumption or income on out-of-pocket health care expenditure (%)',</t>
-  </si>
-  <si>
-    <t>   Proportion of time spent on unpaid domestic and care work, female (% of 24 hour day)</t>
-  </si>
-  <si>
-    <t>    Proportion of time spent on unpaid domestic and care work, male (% of 24 hour day)</t>
-  </si>
-  <si>
     <t>    Research and development expenditure (% of GDP)</t>
   </si>
   <si>
     <t>   School enrollment, tertiary, female (% gross)</t>
   </si>
   <si>
-    <t>    School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
     <t>    Intensidad carbon PPP 2021</t>
   </si>
   <si>
-    <t>    Intensidad carbon PPP 2015</t>
-  </si>
-  <si>
     <t>   Intensidad energia 2017 PPP</t>
   </si>
   <si>
     <t>   gross enrolmet total</t>
   </si>
   <si>
-    <t>    Investigador por habitante</t>
-  </si>
-  <si>
-    <t>Expenditure on tertiary education (% of government expenditure on education)</t>
-  </si>
-  <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
@@ -167,104 +110,59 @@
     <t>Government expenditure on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Government expenditure on education, total (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $2.15 a day (2017 PPP) (% of population)',</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $3.65 a day (2017 PPP) (% of population)',</t>
-  </si>
-  <si>
     <t>Poverty headcount ratio at $6.85 a day (2017 PPP) (% of population)',</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>GED%PIB</t>
-  </si>
-  <si>
-    <t>EDOBLAÑ</t>
-  </si>
-  <si>
-    <t>GEDTER%</t>
-  </si>
-  <si>
-    <t>PIBCRE%</t>
-  </si>
-  <si>
-    <t>PIB/HCRE%</t>
-  </si>
-  <si>
-    <t>PIB/HPPP21</t>
-  </si>
-  <si>
-    <t>GGUBED%PIB</t>
-  </si>
-  <si>
-    <t>GGUBED%GUB</t>
-  </si>
-  <si>
-    <t>POB2.15%POB</t>
-  </si>
-  <si>
-    <t>POB3.65%POB</t>
-  </si>
-  <si>
-    <t>POB6.85%POB</t>
-  </si>
-  <si>
-    <t>POBNAC%POB</t>
-  </si>
-  <si>
-    <t>POBSOC%POB</t>
-  </si>
-  <si>
-    <t>POB25%SAL</t>
-  </si>
-  <si>
-    <t>%TIEDOMMUJ</t>
-  </si>
-  <si>
-    <t>%TIEDOMHOM</t>
-  </si>
-  <si>
-    <t>IN&amp;DES%PIB</t>
-  </si>
-  <si>
-    <t>MAESCTERMUJ</t>
-  </si>
-  <si>
-    <t>MAESCTERHOM</t>
-  </si>
-  <si>
-    <t>INTCARPPP21</t>
-  </si>
-  <si>
-    <t>INTCARPPP15</t>
-  </si>
-  <si>
-    <t>INTENEPPP16</t>
-  </si>
-  <si>
-    <t>MATRBRTOT</t>
-  </si>
-  <si>
-    <t>INV/HAB</t>
-  </si>
-  <si>
     <t>Investigadores en I+D (por millón de personas)</t>
   </si>
   <si>
     <t>Matriculación escolar, terciaria, total (% bruto)</t>
+  </si>
+  <si>
+    <t>Ed_ob/Añ</t>
+  </si>
+  <si>
+    <t>PIB_cr/%</t>
+  </si>
+  <si>
+    <t>PIB_ca/%</t>
+  </si>
+  <si>
+    <t>PIB_ca/ppp21</t>
+  </si>
+  <si>
+    <t>Go_Ed/%PIB</t>
+  </si>
+  <si>
+    <t>Po_$6.85/%T</t>
+  </si>
+  <si>
+    <t>Po_So/%T</t>
+  </si>
+  <si>
+    <t>I&amp;D/%PIB</t>
+  </si>
+  <si>
+    <t>Ma_Tr_Mu/%T</t>
+  </si>
+  <si>
+    <t>In_CO2/ppp21</t>
+  </si>
+  <si>
+    <t>In_En/ppp17</t>
+  </si>
+  <si>
+    <t>Ma_Tr/%T</t>
+  </si>
+  <si>
+    <t>Inv_I&amp;D/Hab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,19 +232,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -361,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -386,16 +286,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,14 +315,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -796,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07ECF84-1670-4FEA-BDF0-D0EABC7ADA0B}">
-  <dimension ref="C4:E57"/>
+  <dimension ref="B4:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -809,287 +705,249 @@
     <col min="5" max="5" width="47.44140625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
       <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="28.2" x14ac:dyDescent="0.4">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="84.6" x14ac:dyDescent="0.4">
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="84.6" x14ac:dyDescent="0.4">
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="84.6" x14ac:dyDescent="0.4">
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="B14" s="10">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="B15" s="10">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="56.4" x14ac:dyDescent="0.4">
+      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" ht="169.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="112.8" x14ac:dyDescent="0.3">
-      <c r="C18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" ht="112.8" x14ac:dyDescent="0.3">
-      <c r="C19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="84.6" x14ac:dyDescent="0.3">
-      <c r="C20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" s="13" customFormat="1" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" ht="56.4" x14ac:dyDescent="0.3">
-      <c r="C27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="2"/>
+    </row>
+    <row r="17" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="3"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="3:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="2"/>
+    <row r="29" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="3"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="3:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="3"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="3:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="3:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="3"/>
       <c r="D32" s="1"/>
     </row>
@@ -1141,65 +999,21 @@
       <c r="C44" s="3"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C45" s="3"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" s="3"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C47" s="3"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C48" s="3"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C49" s="3"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" s="3"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C51" s="3"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C52" s="3"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C53" s="3"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C54" s="3"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="3:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C55" s="3"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="3:4" ht="27.6" x14ac:dyDescent="0.5">
-      <c r="C56" s="12"/>
-      <c r="D56" s="4" t="s">
+    <row r="45" spans="3:4" ht="27.6" x14ac:dyDescent="0.5">
+      <c r="C45" s="11"/>
+      <c r="D45" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:4" ht="27.6" x14ac:dyDescent="0.5">
-      <c r="C57" s="12"/>
-      <c r="D57" s="5" t="s">
+    <row r="46" spans="3:4" ht="27.6" x14ac:dyDescent="0.5">
+      <c r="C46" s="11"/>
+      <c r="D46" s="5" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
